--- a/Data/Template/menu_template.xlsx
+++ b/Data/Template/menu_template.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>핫메뉴</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>가격</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>가이드</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -751,7 +747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:R2"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -769,20 +765,20 @@
     <col min="12" max="15" width="8.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.44140625" style="19" hidden="1" customWidth="1"/>
     <col min="17" max="18" width="14.88671875" style="12" customWidth="1"/>
-    <col min="19" max="19" width="84.88671875" style="30" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" style="19" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="84.88671875" style="30" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" style="19" customWidth="1"/>
     <col min="21" max="16384" width="10.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -797,13 +793,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -821,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>9</v>
@@ -830,14 +826,12 @@
         <v>10</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="V1" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="V1" s="21"/>
     </row>
     <row r="2" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>

--- a/Data/Template/menu_template.xlsx
+++ b/Data/Template/menu_template.xlsx
@@ -747,7 +747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1:U1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -758,12 +758,12 @@
     <col min="5" max="5" width="9.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.109375" style="28" customWidth="1"/>
     <col min="7" max="7" width="25.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="17" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="17" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="12" customWidth="1"/>
     <col min="11" max="11" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="8.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" style="19" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" style="19" customWidth="1"/>
     <col min="17" max="18" width="14.88671875" style="12" customWidth="1"/>
     <col min="19" max="19" width="84.88671875" style="30" customWidth="1"/>
     <col min="20" max="20" width="14.5546875" style="19" customWidth="1"/>
